--- a/qmbe 3710.xlsx
+++ b/qmbe 3710.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8ff96da58685304/Desktop/QMBE_3730_Vanessa_Pham_2025/QMBE_3730_Vanessa_Pham_2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{787E6C43-E6C0-430A-B00F-F6B63E89D44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{787E6C43-E6C0-430A-B00F-F6B63E89D44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35524F4C-4ADF-497F-9163-431A908D3082}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="1480" windowWidth="19200" windowHeight="9970" xr2:uid="{5D864EE1-2F44-4CC1-AD6C-2252E884582A}"/>
   </bookViews>
@@ -36,9 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">boo </t>
+  </si>
+  <si>
+    <t>efjkfjek</t>
   </si>
 </sst>
 </file>
@@ -410,15 +413,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB213DE-E2CB-43C4-9160-98A984FE9CC1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
